--- a/CHL/CHL_platemap_OFAVSP2.xlsx
+++ b/CHL/CHL_platemap_OFAVSP2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/TO DO : ORGANIZE/CHL/Transplants_Platemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/CHL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6547B41-BDB5-C24F-A11F-2819C3EABB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67096CF-97D2-E94D-94AB-F551D06AD19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14240" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="20340" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>A1</t>
   </si>
@@ -371,12 +371,6 @@
   </si>
   <si>
     <t>OFAV_SP_3EV30_P3</t>
-  </si>
-  <si>
-    <t>OFAV_SP_3EV30_P4</t>
-  </si>
-  <si>
-    <t>OFAV_SP_3EV31_P3</t>
   </si>
   <si>
     <t>OFAV_SP_3JQ1_P1</t>
@@ -454,9 +448,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -773,555 +771,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7DC77-4F53-384E-B067-72BD8D0D51CB}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1329,7 +1327,7 @@
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1337,7 +1335,7 @@
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1345,7 +1343,7 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1353,7 +1351,7 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1361,7 +1359,7 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1369,7 +1367,7 @@
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1377,7 +1375,7 @@
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1385,7 +1383,7 @@
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1393,7 +1391,7 @@
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1401,7 +1399,7 @@
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1409,7 +1407,7 @@
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1417,7 +1415,7 @@
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1425,7 +1423,7 @@
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1433,7 +1431,7 @@
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1441,7 +1439,7 @@
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1449,7 +1447,7 @@
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1457,7 +1455,7 @@
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1465,7 +1463,7 @@
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1473,7 +1471,7 @@
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1481,7 +1479,7 @@
       <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1489,7 +1487,7 @@
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1497,7 +1495,7 @@
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1505,7 +1503,7 @@
       <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1513,7 +1511,7 @@
       <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1521,7 +1519,7 @@
       <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1529,7 +1527,7 @@
       <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1537,7 +1535,7 @@
       <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1545,7 +1543,7 @@
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1553,7 +1551,7 @@
       <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1561,7 +1559,7 @@
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1569,7 +1567,7 @@
       <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1577,7 +1575,7 @@
       <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1585,7 +1583,7 @@
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>78</v>
       </c>
     </row>
